--- a/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98058AB1-52FB-4298-9359-89531B14D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A9837-2ED0-4F10-8BD0-BA9E08AB5835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3690" yWindow="930" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_DefaultComment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>item_Name</t>
     <phoneticPr fontId="3"/>
@@ -263,23 +263,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ワシ個人は、そこまで嫌いではない舌触りじゃ。</t>
-    <rPh sb="16" eb="17">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ザワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>じゃが、食感については、まだまだ改善の余地はあるのう。</t>
-    <rPh sb="4" eb="6">
-      <t>ショクカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>もう少し、食感を頑張れば、官能的な舌触りがでるじゃろう。</t>
     <rPh sb="2" eb="3">
       <t>スコ</t>
@@ -312,28 +295,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>この美しさは、プチトリアノンに咲く高貴なバラ達にも引けを取りません。</t>
-    <rPh sb="2" eb="3">
-      <t>ウツク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見た目に関しては、文句なしでございます。</t>
     <rPh sb="0" eb="1">
       <t>ミ</t>
@@ -489,28 +450,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>伝説クラスに目覚めてもおかしくないほどの、才能の持ち主だと思います。</t>
-    <rPh sb="0" eb="2">
-      <t>デンセツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サイノウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヌシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>まずまずのバランスがとれていると思います。</t>
     <rPh sb="16" eb="17">
       <t>オモ</t>
@@ -760,6 +699,155 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>華やかにもう一工夫あると最高ですわね。</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒトクフウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただ、今一つ見た目には何が物足りなかったです。</t>
+    <rPh sb="3" eb="4">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モノタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少しおセンシティブな、美しさが必要そうです。</t>
+    <rPh sb="13" eb="14">
+      <t>ウツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あと一工夫、食感を頑張れば、官能的な舌触りがでるじゃろう。</t>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンノウテキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ザワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食感については、まだまだ改善の余地はあるのう。</t>
+    <rPh sb="0" eb="2">
+      <t>ショクカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワシ個人は、そこまで嫌いではないが、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この美しさは、プチトリアノンのお庭の美しさにも引けを取りません。</t>
+    <rPh sb="2" eb="3">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もうひとつ、華やかさがプラスされれば、最高級の見た目になるでしょう。</t>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイコウキュウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、素材の見直しとバランスが必要そうですね。</t>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かもう一工夫あると.. 大化けするでしょう。</t>
+    <rPh sb="13" eb="15">
+      <t>オオバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「究極パティシエ」としての才能が、キラリと光っています。今後が楽しみです。</t>
+    <rPh sb="1" eb="3">
+      <t>キュウキョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイノウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タノ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1146,9 +1234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1210,13 +1298,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1238,10 +1326,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -1263,13 +1351,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1319,13 +1407,13 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1347,13 +1435,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1378,13 +1466,13 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1406,13 +1494,13 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1465,7 +1553,7 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1490,10 +1578,10 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -1518,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1541,9 +1629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAE0D8D-CE86-4E8D-BF68-1D06BE9EDF97}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1596,22 +1684,22 @@
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1630,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1658,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1714,16 +1802,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
@@ -1742,13 +1830,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1770,16 +1858,16 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1801,13 +1889,13 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1826,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>42</v>
@@ -1857,10 +1945,10 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1882,13 +1970,13 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -1913,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>

--- a/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A9837-2ED0-4F10-8BD0-BA9E08AB5835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1446DC0-5A14-43FE-ABFC-86F1045C0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="930" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_DefaultComment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>item_Name</t>
     <phoneticPr fontId="3"/>
@@ -226,32 +226,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>食感については、全く申し分がない。</t>
-    <rPh sb="8" eb="9">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>まさしく、神のような舌触りといえるじゃろ。</t>
-    <rPh sb="5" eb="6">
-      <t>カミ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ザワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>（ひょっとすると、アイツを超えるかもしれん。）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -770,17 +744,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>食感については、まだまだ改善の余地はあるのう。</t>
-    <rPh sb="0" eb="2">
-      <t>ショクカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ワシ個人は、そこまで嫌いではないが、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>この美しさは、プチトリアノンのお庭の美しさにも引けを取りません。</t>
     <rPh sb="2" eb="3">
       <t>ウツク</t>
@@ -848,6 +811,95 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食感じゃが..。うぅ～む..。</t>
+    <rPh sb="0" eb="2">
+      <t>ショクカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料の特質を、もう一度見直すことじゃ！</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクシツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とても絶妙で官能的な食感がでておる。</t>
+    <rPh sb="3" eb="5">
+      <t>ゼツミョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンノウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショクカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>..食感については全く文句なしじゃ。</t>
+    <rPh sb="2" eb="4">
+      <t>ショクカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふむ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワシは、そこまで嫌いではないが、まだ一つ勉強が必要そうじゃ。</t>
+    <rPh sb="18" eb="19">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食感は、まだまだ勉強が必要じゃろう。</t>
+    <rPh sb="0" eb="2">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食感については、悪くはない。..が、可もなく不可もなく、といったところじゃ。</t>
+    <rPh sb="8" eb="9">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1236,7 +1288,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1298,13 +1350,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1326,10 +1378,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -1351,13 +1403,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1407,13 +1459,13 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1435,13 +1487,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1466,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1494,13 +1546,13 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1522,13 +1574,13 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -1547,13 +1599,13 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1578,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -1603,16 +1655,16 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1684,22 +1736,22 @@
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1718,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1746,13 +1798,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1802,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
@@ -1830,13 +1882,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1858,16 +1910,16 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1889,13 +1941,13 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1914,16 +1966,16 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -1945,10 +1997,10 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1970,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -2001,7 +2053,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>

--- a/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1446DC0-5A14-43FE-ABFC-86F1045C0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3DDAE0-AEBC-4F7F-8CE0-5DF459F76318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_DefaultComment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="160">
   <si>
     <t>item_Name</t>
     <phoneticPr fontId="3"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>setID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -74,10 +70,6 @@
   <si>
     <t>Memo</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>とても素晴らしい味わいです。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>タカノ85~</t>
@@ -838,29 +830,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>とても絶妙で官能的な食感がでておる。</t>
-    <rPh sb="3" eb="5">
-      <t>ゼツミョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンノウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショクカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>..食感については全く文句なしじゃ。</t>
-    <rPh sb="2" eb="4">
-      <t>ショクカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ふむ。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -900,6 +869,907 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むむ！　これはなかなかに良い香りがするの！</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うぅ～ん..。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りはとても良いぞ。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うう～ん。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>胸の奥にまで染み渡り、落ち着く香りじゃ。</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほんの少し、香りを足せば、最高のお茶ができるじゃろう。</t>
+    <rPh sb="3" eb="4">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むふ～ぅ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花の香りは悪くないが..。少しまだ香りが足りないようじゃ。</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、香りがでれば、お茶会で喜ばせそうじゃのう。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全く香りがでてないわい。</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>..ふむ～。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少しお茶の勉強が必要じゃな。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フルーツのうまみが凝縮され、自然本来の味が味わえるわい。</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウシュク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完璧な、こ、こののどごし.. （ゴクリゴクリ）</t>
+    <rPh sb="0" eb="2">
+      <t>カンペキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ズズーーー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うーん！　果実の凝縮具合、じつに良いのどごしじゃ。</t>
+    <rPh sb="5" eb="7">
+      <t>カジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョウシュク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>グアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あとほんの少し、果汁を多くすれば、より香りもでて、うまいジュースになるじゃろ。</t>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ズズゥーーー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ズズーーー。ほほう。このみずみずしさ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほほ。なかなかほどよい、のどごしじゃな。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果汁のうまみは悪くはない。が、少しまだフルーツ感が物足りんかのう。</t>
+    <rPh sb="0" eb="2">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ズズ.. ぐぅぅ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんじゃ、こののどごしは..！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果汁が足りておらんのか。うっすいのう。</t>
+    <rPh sb="0" eb="2">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュースではなく、これでは水じゃのう。</t>
+    <rPh sb="13" eb="14">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contest_Default</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これでは、水と変わらん。もう少し、花本来の香りがよくだしたほうが、おいしくなるじゃろう。</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香り、そして他の味わいとのバランスがとれ、お菓子との相性も良いでしょう。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りは申し分なく、良いお茶だと思います。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まさに、素晴らしいお茶かと思います。</t>
+    <rPh sb="4" eb="6">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この味わいなら、もう少しお花を多く足して、香りをもっと出しても良さそうですね。</t>
+    <rPh sb="2" eb="3">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りは悪くはないと思いますが.. 少し物足りないですね。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モノタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材の見直しとバランスが必要そうですね。</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お茶としては、もう少し香りと味わいが楽しめると、なお素晴らしい味わいになると思います。</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは..、香りが足りていないか、味わいがとても奇妙ですね。</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キミョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>味と香りについて、見直しが必要そうです。</t>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とてもおいしい、果汁本来の味わいが楽しめるジュースですね。</t>
+    <rPh sb="8" eb="10">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレッシュな味わいで、大人から子供まで皆が楽しめそうです。</t>
+    <rPh sb="6" eb="7">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>のどごしはほどよく、味わいも良い具合ですね。</t>
+    <rPh sb="10" eb="11">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>グアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、果肉を多くしたり、その他の味の調和が整えば、よりおいしくなりそうです。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュースとしては、まずまずですが.. 少し味わいが弱いです。</t>
+    <rPh sb="19" eb="20">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果肉の量が足りていないせいかもしれませんが..。味に少し違和感があります。</t>
+    <rPh sb="0" eb="2">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>イワカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは..、ジュースとしては、合格点を上げることはできませんね。</t>
+    <rPh sb="15" eb="18">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>のどごし、また味わいのどれかが、バランスが崩れています。</t>
+    <rPh sb="7" eb="8">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、工夫をしたほうがよいと思います。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし！方向性を間違えなければ、確実に才能の片鱗を見せてくれるでしょう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tea_Potion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coffee_Mat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まさに、素晴らしいコーヒーの味わいですね。</t>
+    <rPh sb="4" eb="6">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りは申し分なく、良いコーヒーだと思います。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あと一工夫、香りを出すのと、苦味との調和で最高のコーヒーになりそうです。</t>
+    <rPh sb="2" eb="5">
+      <t>ヒトクフウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒーとしては、もう少し香りと味わいが楽しめると、なお素晴らしい味わいになると思います。</t>
+    <rPh sb="11" eb="12">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りと苦味の調和について、見直しが必要そうです。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒーの香ばしさはとても良いぞ。</t>
+    <rPh sb="5" eb="6">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>胸の奥にまで染み渡る。まさに、大人の朝を優雅にするコーヒーよの。</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほんの少し、香りを足せば、最高のコーヒーができるじゃろう。</t>
+    <rPh sb="3" eb="4">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆の香りは悪くないが..。少しまだ香りが足りないようじゃ。</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、豆の香りがでれば、ビジネスマンにも喜ばれるのう。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全く豆の香りがでてないわい。</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パンチが効いてないのう。もう少し、豆本来の香りがでたほうが、おいしくなるじゃろう。</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少しコーヒー豆の勉強が必要じゃな。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いやぁ、素晴らしいですね！</t>
+    <rPh sb="4" eb="6">
+      <t>スバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材同士の調和が絶妙で、思わず絶叫するほどにおいしかったです。</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼツミョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゼッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うめぇうめぇ・・。フガフガ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>..食感については全く文句なし、神の食感じゃ！</t>
+    <rPh sb="2" eb="4">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショクカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1288,7 +2158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1313,22 +2183,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1341,25 +2211,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1375,19 +2245,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1403,19 +2273,19 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1431,19 +2301,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1459,19 +2329,19 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1487,19 +2357,19 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -1515,19 +2385,19 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1543,19 +2413,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1571,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1599,19 +2469,19 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -1627,19 +2497,19 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -1655,19 +2525,19 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1679,11 +2549,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAE0D8D-CE86-4E8D-BF68-1D06BE9EDF97}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1708,27 +2578,27 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A61" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1736,25 +2606,25 @@
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1763,26 +2633,26 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" si="1">ROW()-2+1000</f>
+        <f t="shared" ref="B3:B61" si="1">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1798,19 +2668,19 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1826,19 +2696,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1854,19 +2724,19 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1882,19 +2752,19 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -1910,19 +2780,19 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1938,19 +2808,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1966,19 +2836,19 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1994,19 +2864,19 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -2022,19 +2892,19 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -2050,19 +2920,1375 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>ROW()-2+1000</f>
+        <v>1012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
         <v>37</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>1022</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1023</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>ROW()-2+1000</f>
+        <v>1024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1025</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
         <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1027</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1028</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>1031</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>1032</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>1033</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>1034</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>1035</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>ROW()-2+1000</f>
+        <v>1036</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f>ROW()-2+1000</f>
+        <v>1048</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>1049</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>1051</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>1052</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>1053</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>1054</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>1055</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>1057</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>1058</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>1059</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3DDAE0-AEBC-4F7F-8CE0-5DF459F76318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B2652-0A7A-448A-8D39-00C780E7AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_DefaultComment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="200">
   <si>
     <t>item_Name</t>
     <phoneticPr fontId="3"/>
@@ -1416,41 +1416,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジュースとしては、まずまずですが.. 少し味わいが弱いです。</t>
-    <rPh sb="19" eb="20">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>果肉の量が足りていないせいかもしれませんが..。味に少し違和感があります。</t>
-    <rPh sb="0" eb="2">
-      <t>カニク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>イワカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは..、ジュースとしては、合格点を上げることはできませんね。</t>
     <rPh sb="15" eb="18">
       <t>ゴウカクテン</t>
@@ -1461,16 +1426,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>のどごし、また味わいのどれかが、バランスが崩れています。</t>
-    <rPh sb="7" eb="8">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>もう少し、工夫をしたほうがよいと思います。</t>
     <rPh sb="2" eb="3">
       <t>スコ</t>
@@ -1770,6 +1725,580 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ショクカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sumire_suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うん、さすがはすみれの花の砂糖漬けじゃが。</t>
+    <rPh sb="11" eb="12">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、素晴らしく良い香りがでており、すみれの味が堪能できる。</t>
+    <rPh sb="4" eb="6">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>..見た目も美しい。品位の高いグレートなお菓子に仕上がっておるな。</t>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒンイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りは、なかなかに良くでておる。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、すみれの香りがでれば、最高級クラスにもいけるかもしれんな。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイコウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一流まではあと一歩じゃ！</t>
+    <rPh sb="0" eb="2">
+      <t>イチリュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッポ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むふぅ..。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すみれの砂糖漬け.. という工夫はすばらしいが、少し香りが足りぬようじゃ。</t>
+    <rPh sb="4" eb="6">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、すみれを多くして、もっと香りをだすと良いじゃろ。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>..。うぅ～む..。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せっかくのすみれの砂糖漬けじゃから、もう少しすみれを堪能したいが..。</t>
+    <rPh sb="9" eb="11">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香りが全然足りておらんのう。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンゼン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すみれと、味との調和が素晴らしく、心の芯にまでしみ込むような.. 深い味わいです。</t>
+    <rPh sb="5" eb="6">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素晴らしい！</t>
+    <rPh sb="0" eb="2">
+      <t>スバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こんな上品で、優雅なお菓子があったのですね！</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この青さ..。まるで瞳が吸い込まれそうなほどに、美しいですわ！</t>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒトミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最高に美しいお菓子です。ぜひ、王宮でも流行ってほしいですわ！</t>
+    <rPh sb="0" eb="2">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、すみれの色合いが映えると、なお最高かもしれません。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いえ、とても褒めておりますのよ！　ゴージャスで素敵なお菓子ですわ！</t>
+    <rPh sb="6" eb="7">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ステキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>princess_tota</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは.. ！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3種が一体になり、とてもふくよかでおいしい味わいです。見た目との調和も素晴らしい。</t>
+    <rPh sb="1" eb="2">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>スバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、「究極パティシエ」へ、一歩前進でしょうか・・！？　今後に期待ですね！</t>
+    <rPh sb="5" eb="7">
+      <t>キュウキョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッポ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美しい・・このグリーンは・・！</t>
+    <rPh sb="0" eb="1">
+      <t>ウツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これはマジパンで作られた緑ですか？　まさにエメラルド、あるいは翡翠のような・・。</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒスイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まさに、乙女の夢のようなケーキです！　文句なしに素晴らしい見た目ですわ！</t>
+    <rPh sb="4" eb="6">
+      <t>オトメ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素晴らしい。じつに、このグリーンがきれいな、夢のようなケーキです。</t>
+    <rPh sb="0" eb="2">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ユメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あと一工夫、緑色が映える見た目になれば、素晴らしいお菓子になるでしょうね。</t>
+    <rPh sb="2" eb="5">
+      <t>ヒトクフウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミドリイロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アナタのセンスには、目を見張るものがありますわ！</t>
+    <rPh sb="10" eb="11">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うへへぇ・・。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うまい・・うまい・・。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素晴らしく味わいが良く出来ておる。見た目だけじゃなく、中身もしっかりしておる。</t>
+    <rPh sb="0" eb="2">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むふふ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、良い舌触り、しっとりとした味わいじゃ。</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ザワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おいしさでいえば及第点.. あと一つ、舌触りがよくなれば、神のような食感になるじゃろ。</t>
+    <rPh sb="8" eb="11">
+      <t>キュウダイテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ザワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショクカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>良いケーキじゃ。これからも、頑張るじゃぞ！</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見た目はよいかもしれんが.. 味のバランスが少しとれていないようじゃ。</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう少し、スポンジケーキ、あるいはクリームの味わいを良くしないといかん。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジパンのミントの甘味と、ケーキのふんわり感、クリームの濃厚さ加減・・！</t>
+    <rPh sb="9" eb="11">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュースとしては、まずまずですが..</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘さ、もしくはのどごしのバランスが少しとれていないかもしれません。</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単純に、おいしくないです。</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2156,9 +2685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2217,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
@@ -2444,10 +2973,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -2549,11 +3078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAE0D8D-CE86-4E8D-BF68-1D06BE9EDF97}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2598,7 +3127,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A61" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A85" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -2633,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B61" si="1">ROW()-2+1000</f>
+        <f t="shared" ref="B3:B85" si="1">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="D3">
@@ -2941,20 +3470,20 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>ROW()-2+1000</f>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -2979,10 +3508,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>85</v>
@@ -3007,13 +3536,13 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -3035,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -3063,13 +3592,13 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -3094,10 +3623,10 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -3175,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -3203,16 +3732,16 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3231,13 +3760,13 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
         <v>26</v>
@@ -3259,16 +3788,16 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -3280,26 +3809,26 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>ROW()-2+1000</f>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="I26" t="s">
         <v>9</v>
@@ -3318,10 +3847,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>85</v>
@@ -3346,13 +3875,13 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
         <v>22</v>
@@ -3374,10 +3903,10 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>28</v>
@@ -3402,13 +3931,13 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -3430,13 +3959,13 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -3514,13 +4043,13 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
@@ -3542,16 +4071,16 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -3570,13 +4099,13 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
@@ -3598,16 +4127,16 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -3623,13 +4152,13 @@
         <v>1036</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
         <v>122</v>
@@ -3657,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
         <v>85</v>
@@ -3688,7 +4217,7 @@
         <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
         <v>127</v>
@@ -3716,7 +4245,7 @@
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
         <v>28</v>
@@ -3859,7 +4388,7 @@
         <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
         <v>38</v>
@@ -3884,10 +4413,10 @@
         <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
         <v>20</v>
@@ -3912,10 +4441,10 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
         <v>26</v>
@@ -3940,13 +4469,13 @@
         <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -3962,16 +4491,16 @@
         <v>1048</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -3996,10 +4525,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
         <v>85</v>
@@ -4024,13 +4553,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="H52" t="s">
         <v>22</v>
@@ -4052,16 +4581,16 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -4192,13 +4721,13 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -4220,13 +4749,13 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -4248,13 +4777,13 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H60" t="s">
         <v>26</v>
@@ -4276,18 +4805,696 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f>ROW()-2+1000</f>
+        <v>1060</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>1061</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>1062</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>1063</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>1064</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>1065</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>1066</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>1067</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>1068</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>1069</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>1071</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f>ROW()-2+1000</f>
+        <v>1072</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>1073</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>1074</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>1075</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" t="s">
+        <v>199</v>
+      </c>
+      <c r="G77" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" t="s">
+        <v>137</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>1076</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>1077</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>1079</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>1081</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="D85">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
         <v>116</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F85" t="s">
         <v>117</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G85" t="s">
         <v>118</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H85" t="s">
         <v>119</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I85" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B2652-0A7A-448A-8D39-00C780E7AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41887CB3-EFE7-47FB-BDE8-A8CB4E11BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4680" yWindow="3420" windowWidth="23565" windowHeight="11580" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_DefaultComment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
   <si>
     <t>item_Name</t>
     <phoneticPr fontId="3"/>
@@ -1443,14 +1443,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Tea_Potion</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coffee_Mat</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>まさに、素晴らしいコーヒーの味わいですね。</t>
     <rPh sb="4" eb="6">
       <t>スバ</t>
@@ -2300,6 +2292,10 @@
     <rPh sb="0" eb="2">
       <t>タンジュン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coffee</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2746,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
@@ -2973,10 +2969,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -3078,11 +3074,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAE0D8D-CE86-4E8D-BF68-1D06BE9EDF97}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3127,7 +3123,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A85" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A73" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -3162,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B85" si="1">ROW()-2+1000</f>
+        <f t="shared" ref="B3:B73" si="1">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="D3">
@@ -3474,16 +3470,16 @@
         <v>1012</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -3592,13 +3588,13 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
         <v>172</v>
-      </c>
-      <c r="F18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" t="s">
-        <v>174</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -3623,10 +3619,10 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -3704,13 +3700,13 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
         <v>158</v>
-      </c>
-      <c r="F22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" t="s">
-        <v>160</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -3735,13 +3731,13 @@
         <v>89</v>
       </c>
       <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3760,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" t="s">
-        <v>166</v>
       </c>
       <c r="H24" t="s">
         <v>26</v>
@@ -3788,13 +3784,13 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
         <v>167</v>
       </c>
-      <c r="F25" t="s">
-        <v>169</v>
-      </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
         <v>88</v>
@@ -3813,22 +3809,22 @@
         <v>1024</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" t="s">
         <v>178</v>
-      </c>
-      <c r="F26" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" t="s">
-        <v>180</v>
       </c>
       <c r="I26" t="s">
         <v>9</v>
@@ -3931,13 +3927,13 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
         <v>181</v>
-      </c>
-      <c r="F30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" t="s">
-        <v>183</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -3959,13 +3955,13 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" t="s">
         <v>184</v>
-      </c>
-      <c r="F31" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" t="s">
-        <v>186</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -4043,13 +4039,13 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" t="s">
         <v>187</v>
-      </c>
-      <c r="F34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" t="s">
-        <v>189</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
@@ -4071,16 +4067,16 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" t="s">
         <v>190</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>191</v>
-      </c>
-      <c r="G35" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" t="s">
-        <v>193</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -4099,13 +4095,13 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
@@ -4491,13 +4487,13 @@
         <v>1048</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F50" t="s">
         <v>122</v>
@@ -4525,10 +4521,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G51" t="s">
         <v>85</v>
@@ -4556,7 +4552,7 @@
         <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
         <v>127</v>
@@ -4584,7 +4580,7 @@
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G53" t="s">
         <v>28</v>
@@ -4727,7 +4723,7 @@
         <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -4752,10 +4748,10 @@
         <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -4780,10 +4776,10 @@
         <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H60" t="s">
         <v>26</v>
@@ -4808,13 +4804,13 @@
         <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -4830,16 +4826,16 @@
         <v>1060</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G62" t="s">
         <v>52</v>
@@ -4864,10 +4860,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
         <v>85</v>
@@ -4892,13 +4888,13 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
@@ -4920,16 +4916,16 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -5060,13 +5056,13 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="H70" t="s">
         <v>38</v>
@@ -5088,13 +5084,13 @@
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
@@ -5116,13 +5112,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="G72" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="H72" t="s">
         <v>26</v>
@@ -5144,357 +5140,18 @@
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G73" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <f>ROW()-2+1000</f>
-        <v>1072</v>
-      </c>
-      <c r="C74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>131</v>
-      </c>
-      <c r="F74" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-      <c r="I74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
-        <v>1073</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>133</v>
-      </c>
-      <c r="F75" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
-        <v>1074</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>197</v>
-      </c>
-      <c r="F76" t="s">
-        <v>198</v>
-      </c>
-      <c r="G76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>1075</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>135</v>
-      </c>
-      <c r="F77" t="s">
-        <v>199</v>
-      </c>
-      <c r="G77" t="s">
-        <v>136</v>
-      </c>
-      <c r="H77" t="s">
-        <v>137</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>1076</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
-        <v>1077</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" t="s">
-        <v>45</v>
-      </c>
-      <c r="G79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>1078</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>1079</v>
-      </c>
-      <c r="D81">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
-        <v>1080</v>
-      </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>113</v>
-      </c>
-      <c r="F82" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" t="s">
-        <v>107</v>
-      </c>
-      <c r="H82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
-        <v>1081</v>
-      </c>
-      <c r="D83">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" t="s">
-        <v>111</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
-        <v>1082</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
-        <v>112</v>
-      </c>
-      <c r="F84" t="s">
-        <v>114</v>
-      </c>
-      <c r="G84" t="s">
-        <v>115</v>
-      </c>
-      <c r="H84" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>1083</v>
-      </c>
-      <c r="D85">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>116</v>
-      </c>
-      <c r="F85" t="s">
-        <v>117</v>
-      </c>
-      <c r="G85" t="s">
-        <v>118</v>
-      </c>
-      <c r="H85" t="s">
-        <v>119</v>
-      </c>
-      <c r="I85" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestCommentDataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41887CB3-EFE7-47FB-BDE8-A8CB4E11BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D38BC-CF1E-4C83-882F-EB9ABF5DCD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3420" windowWidth="23565" windowHeight="11580" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4320" yWindow="2505" windowWidth="23310" windowHeight="12720" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="01_DefaultComment" sheetId="1" r:id="rId1"/>
-    <sheet name="02_SpecialComment" sheetId="2" r:id="rId2"/>
+    <sheet name="01_ContestComment" sheetId="1" r:id="rId1"/>
+    <sheet name="02_ContestComment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="200">
   <si>
     <t>item_Name</t>
     <phoneticPr fontId="3"/>
@@ -2296,6 +2296,10 @@
   </si>
   <si>
     <t>Coffee</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>search_endflag</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2332,7 +2336,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2342,6 +2346,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,11 +2376,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2383,9 +2403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2423,7 +2443,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2529,7 +2549,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2671,7 +2691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2679,11 +2699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13:H13"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2697,7 +2717,7 @@
     <col min="8" max="9" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2725,46 +2745,51 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f t="shared" ref="A2:B13" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>INDEX(B:B,MATCH(10000,B:B,0),1)+(ROW()-MATCH(10000,B:B,0))</f>
+        <v>10001</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2784,15 +2809,18 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="B4:B67" si="1">INDEX(B:B,MATCH(10000,B:B,0),1)+(ROW()-MATCH(10000,B:B,0))</f>
+        <v>10002</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2812,15 +2840,18 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>10003</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2840,15 +2871,18 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>10004</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2868,15 +2902,18 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>10005</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2896,15 +2933,18 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>10006</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2924,15 +2964,18 @@
       <c r="I8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>10007</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -2952,15 +2995,18 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10008</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -2980,15 +3026,18 @@
       <c r="I10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10009</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -3008,15 +3057,18 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>10010</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3036,15 +3088,18 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10011</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -3063,6 +3118,2259 @@
       </c>
       <c r="I13" t="s">
         <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" ref="A14:A45" si="2">ROW()-2</f>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>10012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>10013</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>10014</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>10015</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>10016</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>10017</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>10018</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>10019</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>10020</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>10021</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>10022</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>10023</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>10024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>10025</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>10026</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>10027</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>10028</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>10029</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>10030</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>10031</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>10032</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>10033</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>10034</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>10035</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>10036</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>10037</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>10038</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>10039</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>10040</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>10041</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>10042</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>10043</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <f t="shared" ref="A46:A77" si="3">ROW()-2</f>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>10044</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>10045</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>10046</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>10047</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>10048</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>10049</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>10050</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>10051</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>10052</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>10053</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>10054</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>10055</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>10056</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>10057</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>10058</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>10059</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>10060</v>
+      </c>
+      <c r="C62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>10061</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>10062</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>10063</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>10064</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>10065</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B85" si="4">INDEX(B:B,MATCH(10000,B:B,0),1)+(ROW()-MATCH(10000,B:B,0))</f>
+        <v>10066</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>10067</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>10068</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>10069</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>10070</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>10071</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" t="s">
+        <v>149</v>
+      </c>
+      <c r="H73" t="s">
+        <v>150</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>10072</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>10073</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>10074</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>10075</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" t="s">
+        <v>137</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <f t="shared" ref="A78:A85" si="5">ROW()-2</f>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>10076</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>10077</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>10078</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>10079</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>10080</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>10081</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>10082</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>10083</v>
+      </c>
+      <c r="D85">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" t="s">
+        <v>117</v>
+      </c>
+      <c r="G85" t="s">
+        <v>118</v>
+      </c>
+      <c r="H85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3074,11 +5382,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAE0D8D-CE86-4E8D-BF68-1D06BE9EDF97}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3092,7 +5400,7 @@
     <col min="8" max="9" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3120,58 +5428,63 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f t="shared" ref="A2:A73" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>ROW()-2+1000</f>
-        <v>1000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B73" si="1">ROW()-2+1000</f>
-        <v>1001</v>
+        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <v>20001</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -3179,27 +5492,30 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>1002</v>
+        <f t="shared" ref="B4:B13" si="1">INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <v>20002</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -3207,15 +5523,18 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>1003</v>
+        <v>20003</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3235,55 +5554,61 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>1004</v>
+        <v>20004</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>1005</v>
+        <v>20005</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3291,43 +5616,49 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>1006</v>
+        <v>20006</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>1007</v>
+        <v>20007</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -3339,7 +5670,7 @@
         <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
@@ -3347,27 +5678,30 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>20008</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -3375,27 +5709,30 @@
       <c r="I10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>1009</v>
+        <v>20009</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -3403,27 +5740,30 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>1010</v>
+        <v>20010</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
@@ -3431,74 +5771,82 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>1011</v>
+        <v>20011</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>1012</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>1013</v>
+        <f>INDEX(B:B,MATCH(21000,B:B,0),1)+(ROW()-MATCH(21000,B:B,0))</f>
+        <v>21001</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3518,15 +5866,18 @@
       <c r="I15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>1014</v>
+        <f t="shared" ref="B16:B25" si="2">INDEX(B:B,MATCH(21000,B:B,0),1)+(ROW()-MATCH(21000,B:B,0))</f>
+        <v>21002</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3546,15 +5897,18 @@
       <c r="I16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>1015</v>
+        <f t="shared" si="2"/>
+        <v>21003</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3574,27 +5928,30 @@
       <c r="I17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>1016</v>
+        <f t="shared" si="2"/>
+        <v>21004</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -3602,15 +5959,18 @@
       <c r="I18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>1017</v>
+        <f t="shared" si="2"/>
+        <v>21005</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3619,10 +5979,10 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -3630,15 +5990,18 @@
       <c r="I19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>1018</v>
+        <f t="shared" si="2"/>
+        <v>21006</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -3658,15 +6021,18 @@
       <c r="I20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>1019</v>
+        <f t="shared" si="2"/>
+        <v>21007</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -3686,27 +6052,30 @@
       <c r="I21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>1020</v>
+        <f t="shared" si="2"/>
+        <v>21008</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -3714,15 +6083,18 @@
       <c r="I22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>1021</v>
+        <f t="shared" si="2"/>
+        <v>21009</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -3731,38 +6103,41 @@
         <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>1022</v>
+        <f t="shared" si="2"/>
+        <v>21010</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
         <v>26</v>
@@ -3770,27 +6145,30 @@
       <c r="I24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
-        <v>1023</v>
+        <f t="shared" si="2"/>
+        <v>21011</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
         <v>88</v>
@@ -3798,46 +6176,51 @@
       <c r="I25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="C26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="B26" s="3">
+        <v>22000</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
-        <v>1025</v>
+        <f>INDEX(B:B,MATCH(22000,B:B,0),1)+(ROW()-MATCH(22000,B:B,0))</f>
+        <v>22001</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3857,15 +6240,18 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
-        <v>1026</v>
+        <f t="shared" ref="B28:B37" si="3">INDEX(B:B,MATCH(22000,B:B,0),1)+(ROW()-MATCH(22000,B:B,0))</f>
+        <v>22002</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3885,15 +6271,18 @@
       <c r="I28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>1027</v>
+        <f t="shared" si="3"/>
+        <v>22003</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3913,27 +6302,30 @@
       <c r="I29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
-        <v>1028</v>
+        <f t="shared" si="3"/>
+        <v>22004</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -3941,27 +6333,30 @@
       <c r="I30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
-        <v>1029</v>
+        <f t="shared" si="3"/>
+        <v>22005</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -3969,15 +6364,18 @@
       <c r="I31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>1030</v>
+        <f t="shared" si="3"/>
+        <v>22006</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -3997,15 +6395,18 @@
       <c r="I32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
-        <v>1031</v>
+        <f t="shared" si="3"/>
+        <v>22007</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -4025,27 +6426,30 @@
       <c r="I33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
-        <v>1032</v>
+        <f t="shared" si="3"/>
+        <v>22008</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
@@ -4053,55 +6457,61 @@
       <c r="I34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>1033</v>
+        <f t="shared" si="3"/>
+        <v>22009</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
-        <v>1034</v>
+        <f t="shared" si="3"/>
+        <v>22010</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
@@ -4109,15 +6519,18 @@
       <c r="I36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
-        <v>1035</v>
+        <f t="shared" si="3"/>
+        <v>22011</v>
       </c>
       <c r="D37">
         <v>11</v>
@@ -4137,1022 +6550,8 @@
       <c r="I37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <f>ROW()-2+1000</f>
-        <v>1036</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="1"/>
-        <v>1037</v>
-      </c>
-      <c r="D39">
+      <c r="J37">
         <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="1"/>
-        <v>1038</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="1"/>
-        <v>1039</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="1"/>
-        <v>1040</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
-        <v>1041</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="1"/>
-        <v>1042</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="1"/>
-        <v>1043</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="1"/>
-        <v>1044</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="1"/>
-        <v>1045</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="1"/>
-        <v>1046</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="1"/>
-        <v>1047</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <f>ROW()-2+1000</f>
-        <v>1048</v>
-      </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="1"/>
-        <v>1049</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="1"/>
-        <v>1050</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="1"/>
-        <v>1051</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="1"/>
-        <v>1052</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="1"/>
-        <v>1053</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="1"/>
-        <v>1054</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="1"/>
-        <v>1055</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="1"/>
-        <v>1056</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" t="s">
-        <v>95</v>
-      </c>
-      <c r="G58" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="1"/>
-        <v>1057</v>
-      </c>
-      <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="1"/>
-        <v>1058</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" t="s">
-        <v>147</v>
-      </c>
-      <c r="H60" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="1"/>
-        <v>1059</v>
-      </c>
-      <c r="D61">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" t="s">
-        <v>148</v>
-      </c>
-      <c r="G61" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61" t="s">
-        <v>150</v>
-      </c>
-      <c r="I61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <f>ROW()-2+1000</f>
-        <v>1060</v>
-      </c>
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" t="s">
-        <v>132</v>
-      </c>
-      <c r="G62" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="1"/>
-        <v>1061</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="1"/>
-        <v>1062</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F64" t="s">
-        <v>196</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="1"/>
-        <v>1063</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>135</v>
-      </c>
-      <c r="F65" t="s">
-        <v>197</v>
-      </c>
-      <c r="G65" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="1"/>
-        <v>1064</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="1"/>
-        <v>1065</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>1066</v>
-      </c>
-      <c r="D68">
-        <v>6</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>1067</v>
-      </c>
-      <c r="D69">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>1068</v>
-      </c>
-      <c r="D70">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>1069</v>
-      </c>
-      <c r="D71">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>1070</v>
-      </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G72" t="s">
-        <v>115</v>
-      </c>
-      <c r="H72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>1071</v>
-      </c>
-      <c r="D73">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>116</v>
-      </c>
-      <c r="F73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" t="s">
-        <v>119</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
